--- a/data/trans_orig/P21D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>89103</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67741</v>
+        <v>65031</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113354</v>
+        <v>110844</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4227267269029545</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3213812995111474</v>
+        <v>0.3085262859578407</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.537779601004632</v>
+        <v>0.5258736745992113</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -762,19 +762,19 @@
         <v>50986</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36931</v>
+        <v>34902</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69273</v>
+        <v>67035</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3128254094829095</v>
+        <v>0.3128254094829094</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2265911123942806</v>
+        <v>0.2141439613555456</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4250252751093391</v>
+        <v>0.4112984074712275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -783,19 +783,19 @@
         <v>140089</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>112537</v>
+        <v>114029</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170060</v>
+        <v>168153</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3748030348550684</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3010890611551123</v>
+        <v>0.3050818224229871</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4549903767234769</v>
+        <v>0.4498877885818993</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>114817</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>90355</v>
+        <v>94531</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136329</v>
+        <v>139309</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5447203372550636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4286654902535431</v>
+        <v>0.4484818832335511</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6467825141673976</v>
+        <v>0.6609164432490343</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -833,19 +833,19 @@
         <v>108352</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>90135</v>
+        <v>92056</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123746</v>
+        <v>124809</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.664796883381692</v>
+        <v>0.6647968833816918</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5530249963823499</v>
+        <v>0.5648130737022473</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7592503693462629</v>
+        <v>0.7657727717407939</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>111</v>
@@ -854,19 +854,19 @@
         <v>223169</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>194184</v>
+        <v>195223</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>250886</v>
+        <v>251268</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5970810509738306</v>
+        <v>0.5970810509738307</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.519533137758559</v>
+        <v>0.5223140305689378</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6712387230812549</v>
+        <v>0.6722605581595015</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22460</v>
+        <v>26569</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03255293584198195</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.106556227394583</v>
+        <v>0.1260480064282171</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13984</v>
+        <v>11572</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02237770713539868</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08580086626033467</v>
+        <v>0.07100062914026332</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -925,19 +925,19 @@
         <v>10509</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2593</v>
+        <v>3503</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26589</v>
+        <v>27435</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02811591417110099</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006938753511342422</v>
+        <v>0.009372760555188346</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07113751982359107</v>
+        <v>0.07340031756935821</v>
       </c>
     </row>
     <row r="7">
@@ -1076,19 +1076,19 @@
         <v>93053</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74373</v>
+        <v>74525</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>112157</v>
+        <v>113351</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4102640601946321</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3279041454367446</v>
+        <v>0.3285756701526003</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4944924542230336</v>
+        <v>0.4997531780932176</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>47</v>
@@ -1097,19 +1097,19 @@
         <v>53859</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41189</v>
+        <v>40761</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>68244</v>
+        <v>68757</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2151328967292261</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1645233119078377</v>
+        <v>0.162814635663898</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2725887700157621</v>
+        <v>0.2746395911007666</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>103</v>
@@ -1118,19 +1118,19 @@
         <v>146912</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>120911</v>
+        <v>124236</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>172525</v>
+        <v>174337</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3078851338102506</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2533935384924219</v>
+        <v>0.2603620417376992</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3615618813281409</v>
+        <v>0.3653587564968768</v>
       </c>
     </row>
     <row r="10">
@@ -1147,19 +1147,19 @@
         <v>131196</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111835</v>
+        <v>111852</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150673</v>
+        <v>150072</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5784335649253934</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4930735517993756</v>
+        <v>0.4931472227319243</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6643029382727021</v>
+        <v>0.6616566495449714</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>176</v>
@@ -1168,19 +1168,19 @@
         <v>190366</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>174852</v>
+        <v>174787</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203685</v>
+        <v>204438</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7603873776294163</v>
+        <v>0.7603873776294164</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6984176182519573</v>
+        <v>0.6981587988419052</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8135897810722837</v>
+        <v>0.8165956290599696</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>263</v>
@@ -1189,19 +1189,19 @@
         <v>321562</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>296527</v>
+        <v>292952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>347500</v>
+        <v>344619</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6738987672301253</v>
+        <v>0.6738987672301252</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6214333097465503</v>
+        <v>0.6139405051855686</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7282571691269312</v>
+        <v>0.7222196104124846</v>
       </c>
     </row>
     <row r="11">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8704</v>
+        <v>8144</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01130237487997449</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03837540548927025</v>
+        <v>0.03590675013439182</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1239,19 +1239,19 @@
         <v>6129</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1977</v>
+        <v>2038</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15014</v>
+        <v>14445</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02447972564135756</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007896219480785597</v>
+        <v>0.008142454482488421</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05996916418650294</v>
+        <v>0.05769958167039534</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1260,19 +1260,19 @@
         <v>8692</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3324</v>
+        <v>3617</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17055</v>
+        <v>17278</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01821609895962404</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006965751017788623</v>
+        <v>0.007580173334438543</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03574273851028483</v>
+        <v>0.03621030471733357</v>
       </c>
     </row>
     <row r="12">
@@ -1411,19 +1411,19 @@
         <v>75420</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59269</v>
+        <v>61539</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93559</v>
+        <v>92718</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2986717935058825</v>
+        <v>0.2986717935058824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2347131658546518</v>
+        <v>0.2437013553226179</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3705051460324763</v>
+        <v>0.3671728592452405</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>86</v>
@@ -1432,19 +1432,19 @@
         <v>68633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57554</v>
+        <v>56895</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82881</v>
+        <v>82590</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2313708587747794</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.194021580376833</v>
+        <v>0.1918009993739484</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2794042799502768</v>
+        <v>0.2784228633752496</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>151</v>
@@ -1453,19 +1453,19 @@
         <v>144053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124342</v>
+        <v>123865</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165034</v>
+        <v>165207</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2623179076728733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2264250403538748</v>
+        <v>0.2255557862845545</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3005241170909544</v>
+        <v>0.3008391058755223</v>
       </c>
     </row>
     <row r="15">
@@ -1482,19 +1482,19 @@
         <v>170067</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>152981</v>
+        <v>152318</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>187211</v>
+        <v>184736</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.673483789699741</v>
+        <v>0.6734837896997409</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6058213899223578</v>
+        <v>0.603196087636052</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7413763694713699</v>
+        <v>0.7315740839631193</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>299</v>
@@ -1503,19 +1503,19 @@
         <v>220282</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>205578</v>
+        <v>206992</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>232571</v>
+        <v>233929</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.7426033579528538</v>
+        <v>0.7426033579528539</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6930344081320982</v>
+        <v>0.6978016641972995</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.784032202826725</v>
+        <v>0.788608417729897</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>451</v>
@@ -1524,19 +1524,19 @@
         <v>390349</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>368833</v>
+        <v>368689</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>410319</v>
+        <v>411869</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.710820045178809</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6716395214849932</v>
+        <v>0.6713779674201972</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7471845240768346</v>
+        <v>0.7500079582394145</v>
       </c>
     </row>
     <row r="16">
@@ -1553,19 +1553,19 @@
         <v>7031</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2251</v>
+        <v>2259</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17074</v>
+        <v>16576</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02784441679437669</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008912539136237088</v>
+        <v>0.008946949189476534</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06761321568619029</v>
+        <v>0.06564210606061421</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1574,19 +1574,19 @@
         <v>6972</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3424</v>
+        <v>3445</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13064</v>
+        <v>12755</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02350215275758361</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01154328655483027</v>
+        <v>0.01161482471362945</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04404074011763363</v>
+        <v>0.04299761649058987</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1595,19 +1595,19 @@
         <v>14003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7817</v>
+        <v>7664</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25200</v>
+        <v>23751</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02549885990603524</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01423446433888863</v>
+        <v>0.01395668004105182</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0458890685230686</v>
+        <v>0.04324972992026988</v>
       </c>
     </row>
     <row r="17">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3133</v>
+        <v>4139</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002523630514782984</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01056069312504493</v>
+        <v>0.01395332736717316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3060</v>
+        <v>3751</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.001363187242282379</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.005572827798779745</v>
+        <v>0.00683005201315081</v>
       </c>
     </row>
     <row r="18">
@@ -1762,19 +1762,19 @@
         <v>79671</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63841</v>
+        <v>63761</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96200</v>
+        <v>95180</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2512745091390171</v>
+        <v>0.2512745091390172</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2013484902447715</v>
+        <v>0.2010967247529383</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.303405479887019</v>
+        <v>0.3001871535573474</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>103</v>
@@ -1783,19 +1783,19 @@
         <v>70179</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59970</v>
+        <v>58430</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83203</v>
+        <v>83222</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2025609536512359</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1730959257619331</v>
+        <v>0.1686494242663452</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2401529031797592</v>
+        <v>0.2402086954082129</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>178</v>
@@ -1804,19 +1804,19 @@
         <v>149850</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130157</v>
+        <v>130848</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>170440</v>
+        <v>170943</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2258388612562957</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1961603289413995</v>
+        <v>0.1972013840520777</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2568694638221286</v>
+        <v>0.2576275086374317</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>232048</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214687</v>
+        <v>215328</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248472</v>
+        <v>247154</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.731856478828817</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6770993806407758</v>
+        <v>0.6791213028360443</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7836561296848176</v>
+        <v>0.7794976098303513</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>416</v>
@@ -1854,19 +1854,19 @@
         <v>269874</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>256055</v>
+        <v>256411</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>280114</v>
+        <v>281601</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.778951886483109</v>
+        <v>0.7789518864831089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7390655654373006</v>
+        <v>0.7400918773590338</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8085083169277874</v>
+        <v>0.8127985221405011</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>633</v>
@@ -1875,19 +1875,19 @@
         <v>501922</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>479903</v>
+        <v>481650</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>522038</v>
+        <v>523216</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7564472153084868</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7232623915026362</v>
+        <v>0.7258940991626975</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.786764015617005</v>
+        <v>0.7885395508942138</v>
       </c>
     </row>
     <row r="21">
@@ -1904,19 +1904,19 @@
         <v>5349</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1812</v>
+        <v>1394</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13566</v>
+        <v>13816</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0168690120321658</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005714679616562019</v>
+        <v>0.004397335042357663</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04278522172096354</v>
+        <v>0.04357288355154249</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1925,19 +1925,19 @@
         <v>6405</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11497</v>
+        <v>11694</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01848715986565509</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.009090580053370979</v>
+        <v>0.009104133994076011</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03318427803018971</v>
+        <v>0.03375222225106989</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -1946,19 +1946,19 @@
         <v>11754</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6710</v>
+        <v>6735</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21141</v>
+        <v>20565</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01771392343521758</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01011201837428184</v>
+        <v>0.01015081518991166</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0318623516817615</v>
+        <v>0.03099368018639081</v>
       </c>
     </row>
     <row r="22">
@@ -2097,19 +2097,19 @@
         <v>45738</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35237</v>
+        <v>34068</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>59076</v>
+        <v>58065</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1776354021395715</v>
+        <v>0.1776354021395714</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1368508745442648</v>
+        <v>0.1323125284430348</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2294370413199828</v>
+        <v>0.2255103397249387</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>54</v>
@@ -2118,19 +2118,19 @@
         <v>33403</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25831</v>
+        <v>25924</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42648</v>
+        <v>42113</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1314162703684146</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1016277460781239</v>
+        <v>0.1019923109014392</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1677884349554532</v>
+        <v>0.165684589389276</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>101</v>
@@ -2139,19 +2139,19 @@
         <v>79141</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>64620</v>
+        <v>65498</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>95303</v>
+        <v>95323</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.154675111784504</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1262948130524074</v>
+        <v>0.1280111635582746</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1862626299194141</v>
+        <v>0.1863034201314431</v>
       </c>
     </row>
     <row r="25">
@@ -2168,19 +2168,19 @@
         <v>205662</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>191528</v>
+        <v>191988</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>217010</v>
+        <v>217943</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7987468607738432</v>
+        <v>0.798746860773843</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7438544887951143</v>
+        <v>0.7456388653564104</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8428182734157165</v>
+        <v>0.8464448552480681</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>349</v>
@@ -2189,19 +2189,19 @@
         <v>215380</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>204757</v>
+        <v>206018</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>223748</v>
+        <v>223214</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8473636955962708</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8055716559204021</v>
+        <v>0.8105340496934637</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8802894496533626</v>
+        <v>0.8781885497378168</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>574</v>
@@ -2210,19 +2210,19 @@
         <v>421042</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>404192</v>
+        <v>404543</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>436932</v>
+        <v>435831</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8228982587099656</v>
+        <v>0.8228982587099657</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7899672491828862</v>
+        <v>0.7906524131098813</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8539553878161701</v>
+        <v>0.851803958370466</v>
       </c>
     </row>
     <row r="26">
@@ -2239,19 +2239,19 @@
         <v>6081</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2522</v>
+        <v>2150</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14109</v>
+        <v>12341</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02361773708658537</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009793471827765181</v>
+        <v>0.008348360160865962</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0547959214970271</v>
+        <v>0.04793125238192047</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2260,19 +2260,19 @@
         <v>4691</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9028</v>
+        <v>9945</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01845698997127112</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00783275039112393</v>
+        <v>0.00786210093885855</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03551952207359095</v>
+        <v>0.03912634000141448</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -2281,19 +2281,19 @@
         <v>10772</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5367</v>
+        <v>6026</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18289</v>
+        <v>19516</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02105403137261007</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01049022202010022</v>
+        <v>0.01177811458424445</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03574467860434286</v>
+        <v>0.03814342632300719</v>
       </c>
     </row>
     <row r="27">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2821</v>
+        <v>3920</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.002763044064043484</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01110010108854132</v>
+        <v>0.01542209625533041</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3368</v>
+        <v>4204</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.001372598132920229</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.006582680303331961</v>
+        <v>0.008216261518388411</v>
       </c>
     </row>
     <row r="28">
@@ -2448,19 +2448,19 @@
         <v>24202</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17080</v>
+        <v>17202</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>32621</v>
+        <v>32631</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1390507421495782</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09812955171055261</v>
+        <v>0.09883067163613792</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1874207102149811</v>
+        <v>0.1874773035389147</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>39</v>
@@ -2469,19 +2469,19 @@
         <v>21068</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14896</v>
+        <v>14883</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28574</v>
+        <v>27223</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1055630354010825</v>
+        <v>0.1055630354010824</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07463901484268869</v>
+        <v>0.07457372321638224</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1431751461985717</v>
+        <v>0.1364058429193586</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>72</v>
@@ -2490,19 +2490,19 @@
         <v>45270</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>36162</v>
+        <v>36068</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>56779</v>
+        <v>55611</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1211632394186855</v>
+        <v>0.1211632394186854</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0967860976167975</v>
+        <v>0.09653555673645597</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1519685957009353</v>
+        <v>0.1488406334185463</v>
       </c>
     </row>
     <row r="30">
@@ -2519,19 +2519,19 @@
         <v>146918</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>138585</v>
+        <v>138662</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>154357</v>
+        <v>154960</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8440977405441811</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7962201306604344</v>
+        <v>0.7966647614178651</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8868406684444002</v>
+        <v>0.8903061368514164</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>328</v>
@@ -2540,19 +2540,19 @@
         <v>174254</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>166432</v>
+        <v>166965</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>180825</v>
+        <v>180636</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8731362356495757</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8339424438976363</v>
+        <v>0.836611858700925</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9060608471442849</v>
+        <v>0.9051103035526787</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>534</v>
@@ -2561,19 +2561,19 @@
         <v>321172</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>309424</v>
+        <v>309980</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>330443</v>
+        <v>331265</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.859608691007282</v>
+        <v>0.8596086910072817</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8281644449938805</v>
+        <v>0.829653542706673</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8844217389449281</v>
+        <v>0.8866229005229641</v>
       </c>
     </row>
     <row r="31">
@@ -2590,19 +2590,19 @@
         <v>2933</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7734</v>
+        <v>7816</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01685151730624065</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.00527404021133993</v>
+        <v>0.005310652325651842</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04443340438749264</v>
+        <v>0.04490299573735721</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>8</v>
@@ -2611,19 +2611,19 @@
         <v>4251</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1961</v>
+        <v>2026</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8099</v>
+        <v>8222</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02130072894934192</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.009828175311225842</v>
+        <v>0.0101496341105957</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04058389300795159</v>
+        <v>0.04119610482872686</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>11</v>
@@ -2632,19 +2632,19 @@
         <v>7184</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3513</v>
+        <v>3766</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12964</v>
+        <v>12818</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.01922806957403274</v>
+        <v>0.01922806957403273</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.009403166230063686</v>
+        <v>0.01008022468710369</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03469896624203094</v>
+        <v>0.03430808436508745</v>
       </c>
     </row>
     <row r="32">
@@ -2783,19 +2783,19 @@
         <v>12243</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7139</v>
+        <v>7432</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>18820</v>
+        <v>19349</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.09449358105765253</v>
+        <v>0.09449358105765251</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05510479354448468</v>
+        <v>0.05736376968173471</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1452560636871985</v>
+        <v>0.1493443706913907</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>22</v>
@@ -2804,19 +2804,19 @@
         <v>14837</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9414</v>
+        <v>9556</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>21745</v>
+        <v>22009</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.07944845661734537</v>
+        <v>0.07944845661734538</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05040755003499482</v>
+        <v>0.05116601512356247</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1164363470024423</v>
+        <v>0.1178501196367082</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>38</v>
@@ -2825,19 +2825,19 @@
         <v>27080</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>18936</v>
+        <v>19523</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>36680</v>
+        <v>36466</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08561083262016617</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05986271633910958</v>
+        <v>0.06172127547466492</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1159595252518153</v>
+        <v>0.1152820082088599</v>
       </c>
     </row>
     <row r="35">
@@ -2854,19 +2854,19 @@
         <v>117318</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>110741</v>
+        <v>110212</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>122422</v>
+        <v>122129</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.9055064189423476</v>
+        <v>0.9055064189423475</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.8547439363128015</v>
+        <v>0.8506556293086095</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.9448952064555153</v>
+        <v>0.9426362303182655</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>319</v>
@@ -2875,19 +2875,19 @@
         <v>169920</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>162586</v>
+        <v>162520</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>175331</v>
+        <v>175504</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.9098558960632184</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.8705848378107103</v>
+        <v>0.8702309943684081</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.9388264367021563</v>
+        <v>0.9397572468393882</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>495</v>
@@ -2896,19 +2896,19 @@
         <v>287238</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>277476</v>
+        <v>276950</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>294963</v>
+        <v>294818</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.908074381158452</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.8772124828155553</v>
+        <v>0.8755476343821276</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.9324955957088609</v>
+        <v>0.9320357880635448</v>
       </c>
     </row>
     <row r="36">
@@ -2938,19 +2938,19 @@
         <v>1997</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4871</v>
+        <v>4767</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01069564731943613</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.00303788240193927</v>
+        <v>0.003039587696399137</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02608233759131276</v>
+        <v>0.02552674822421353</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4</v>
@@ -2959,19 +2959,19 @@
         <v>1997</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4564</v>
+        <v>5237</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006314786221381825</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001796522408815055</v>
+        <v>0.001801092753015574</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01443018171982103</v>
+        <v>0.01655545198758559</v>
       </c>
     </row>
     <row r="37">
@@ -3110,19 +3110,19 @@
         <v>419429</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>381944</v>
+        <v>376510</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>461970</v>
+        <v>460341</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2674465289178282</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2435443972370072</v>
+        <v>0.2400790102335602</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2945721609668509</v>
+        <v>0.293533490076435</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>377</v>
@@ -3131,19 +3131,19 @@
         <v>312965</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>284244</v>
+        <v>284165</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>346049</v>
+        <v>345780</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.184429202178375</v>
+        <v>0.1844292021783751</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.167504514437911</v>
+        <v>0.1674578575921206</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2039258294824525</v>
+        <v>0.2037672083616757</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>706</v>
@@ -3152,19 +3152,19 @@
         <v>732394</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>679175</v>
+        <v>684462</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>781082</v>
+        <v>784942</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.2243022632762941</v>
+        <v>0.224302263276294</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2080035175207635</v>
+        <v>0.2096226842049896</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2392134547576317</v>
+        <v>0.240395422453235</v>
       </c>
     </row>
     <row r="40">
@@ -3181,19 +3181,19 @@
         <v>1118025</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1073770</v>
+        <v>1077860</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1158617</v>
+        <v>1162882</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.7129018885138025</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6846828525331358</v>
+        <v>0.6872907153385354</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.7387850251487478</v>
+        <v>0.7415041195595438</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1952</v>
@@ -3202,19 +3202,19 @@
         <v>1348428</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1313004</v>
+        <v>1315557</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1378575</v>
+        <v>1377557</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.7946253116763022</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.7737501277238397</v>
+        <v>0.7752544454397421</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.8123908838737494</v>
+        <v>0.8117908777202378</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3061</v>
@@ -3223,19 +3223,19 @@
         <v>2466454</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2416613</v>
+        <v>2411780</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2524129</v>
+        <v>2519249</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.7553737099580691</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.7401095440479488</v>
+        <v>0.7386295181432686</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7730373996097329</v>
+        <v>0.771542745746402</v>
       </c>
     </row>
     <row r="41">
@@ -3252,19 +3252,19 @@
         <v>30819</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>18828</v>
+        <v>18438</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>48042</v>
+        <v>48785</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01965158256836929</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01200541340545079</v>
+        <v>0.01175682815705855</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03063362281566239</v>
+        <v>0.03110719371033346</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>45</v>
@@ -3273,19 +3273,19 @@
         <v>34092</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>24214</v>
+        <v>24486</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>47589</v>
+        <v>45627</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0200904758957751</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01426902084943711</v>
+        <v>0.01442935214745227</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02804429690789336</v>
+        <v>0.02688786111318775</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>67</v>
@@ -3294,19 +3294,19 @@
         <v>64911</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>49998</v>
+        <v>48716</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>85398</v>
+        <v>86941</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01987967628144827</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01531248207363134</v>
+        <v>0.0149197724659703</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02615387228032988</v>
+        <v>0.02662655174481654</v>
       </c>
     </row>
     <row r="42">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>5147</v>
+        <v>4521</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0008550102495476257</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.003032907023771108</v>
+        <v>0.002664166611066165</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5706</v>
+        <v>4462</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0004443504841885753</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.00174751727754155</v>
+        <v>0.001366514325174383</v>
       </c>
     </row>
     <row r="43">
